--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="180">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -214,6 +215,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">choerodon.</t>
     </r>
@@ -222,6 +224,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route.organization.saga</t>
     </r>
@@ -238,6 +241,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">choerodon.</t>
     </r>
@@ -246,6 +250,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route.organization.saga-instance</t>
     </r>
@@ -290,7 +295,23 @@
     <t xml:space="preserve">ICON</t>
   </si>
   <si>
-    <t xml:space="preserve">SORT</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SORT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">choerodon.code.task-dispatch</t>
@@ -615,6 +636,18 @@
   </si>
   <si>
     <t xml:space="preserve">asgard-service.schedule-method-project.getParams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ROLE_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/site/default/administrator</t>
   </si>
   <si>
     <t xml:space="preserve">FD_CATEGORY_MENU</t>
@@ -642,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -680,17 +713,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -735,7 +776,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,16 +797,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -787,15 +836,17 @@
   </sheetPr>
   <dimension ref="D7:O24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
@@ -804,8 +855,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1402,15 +1454,17 @@
   </sheetPr>
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.01"/>
@@ -1418,7 +1472,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="61.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1455,7 +1511,7 @@
       <c r="N7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="6" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -2116,190 +2172,190 @@
       <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="J28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="J29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>116</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2329,10 +2385,12 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="76.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2822,7 +2880,7 @@
       <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -2830,7 +2888,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -2838,7 +2896,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -2846,7 +2904,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>125</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -2871,9 +2929,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="D7:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="D7:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -2885,26 +3023,26 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>127</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
@@ -2912,7 +3050,7 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>93</v>
@@ -2926,7 +3064,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>98</v>
@@ -2940,7 +3078,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>100</v>
@@ -2954,7 +3092,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>101</v>
@@ -2968,7 +3106,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>102</v>
@@ -2982,7 +3120,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>103</v>
@@ -2996,13 +3134,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -3010,13 +3148,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -3024,13 +3162,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -3038,13 +3176,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -3052,13 +3190,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>112</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -3066,13 +3204,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -3080,7 +3218,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>104</v>
@@ -3094,7 +3232,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>108</v>
@@ -3108,7 +3246,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>110</v>
@@ -3122,7 +3260,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>111</v>
@@ -3136,7 +3274,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>112</v>
@@ -3153,7 +3291,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>113</v>
@@ -3170,9 +3308,9 @@
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3181,9 +3319,9 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3192,9 +3330,9 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3203,9 +3341,9 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H29" s="3" t="s">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -300,6 +300,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@</t>
     </r>
@@ -675,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -720,11 +721,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -801,7 +797,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -813,7 +809,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,7 +833,7 @@
   <dimension ref="D7:O24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="F29 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1454,8 +1450,8 @@
   </sheetPr>
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="1" sqref="F29 O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2378,7 +2374,7 @@
   <dimension ref="D7:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="F29 H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2932,7 +2928,7 @@
   <dimension ref="D7:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="F29 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3011,8 +3007,8 @@
   </sheetPr>
   <dimension ref="D7:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3308,7 +3304,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>114</v>
@@ -3319,7 +3315,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>119</v>
@@ -3330,7 +3326,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>124</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>125</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="176">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -226,32 +226,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">route.organization.saga</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">/asgard/org-saga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织事务定义路由</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">route.organization.saga-instance</t>
     </r>
   </si>
@@ -486,22 +460,19 @@
     <t xml:space="preserve">developer_board</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.saga</t>
+    <t xml:space="preserve">choerodon.code.organization.saga-instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.site.saga-manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.site.saga</t>
   </si>
   <si>
     <t xml:space="preserve">Saga Define</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.organization.saga-instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.saga-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.saga</t>
   </si>
   <si>
     <t xml:space="preserve">choerodon.code.site.saga-instance</t>
@@ -840,16 +811,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:O24"/>
+  <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
@@ -1323,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1340,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>17</v>
@@ -1356,20 +1327,20 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1386,10 +1357,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>14</v>
@@ -1398,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>17</v>
@@ -1413,35 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1458,34 +1401,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:P32"/>
+  <dimension ref="D7:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="61.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1494,31 +1437,31 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>11</v>
@@ -1526,28 +1469,28 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>40</v>
@@ -1558,13 +1501,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
@@ -1573,16 +1516,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>10</v>
@@ -1593,13 +1536,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>18</v>
@@ -1608,16 +1551,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>20</v>
@@ -1628,13 +1571,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
@@ -1643,16 +1586,16 @@
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>30</v>
@@ -1663,28 +1606,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>50</v>
@@ -1695,13 +1638,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>24</v>
@@ -1710,16 +1653,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>10</v>
@@ -1730,13 +1673,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>27</v>
@@ -1745,16 +1688,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>20</v>
@@ -1765,28 +1708,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>10</v>
@@ -1797,13 +1740,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>30</v>
@@ -1812,16 +1755,16 @@
         <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>120</v>
@@ -1832,28 +1775,28 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>70</v>
@@ -1864,13 +1807,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>33</v>
@@ -1879,16 +1822,16 @@
         <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>10</v>
@@ -1899,13 +1842,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>34</v>
@@ -1914,16 +1857,16 @@
         <v>14</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>20</v>
@@ -1934,13 +1877,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>35</v>
@@ -1949,16 +1892,16 @@
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>30</v>
@@ -1969,28 +1912,28 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>90</v>
@@ -2001,13 +1944,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>36</v>
@@ -2016,16 +1959,16 @@
         <v>14</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>70</v>
@@ -2036,28 +1979,28 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>100</v>
@@ -2068,13 +2011,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>39</v>
@@ -2083,16 +2026,16 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>10</v>
@@ -2103,13 +2046,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>40</v>
@@ -2118,16 +2061,16 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>20</v>
@@ -2141,13 +2084,13 @@
         <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>42</v>
@@ -2156,16 +2099,16 @@
         <v>14</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -2179,29 +2122,29 @@
         <v>43</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O27" s="8" t="n">
         <v>40</v>
@@ -2209,13 +2152,13 @@
     </row>
     <row r="28" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>44</v>
@@ -2224,147 +2167,116 @@
         <v>14</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="J30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="8" t="n">
         <v>20</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2381,10 +2293,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:H52"/>
+  <dimension ref="D7:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F50" activeCellId="0" sqref="F50"/>
+      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2401,16 +2313,16 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -2420,10 +2332,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
@@ -2433,10 +2345,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>1</v>
@@ -2446,10 +2358,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -2459,10 +2371,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -2472,10 +2384,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -2485,10 +2397,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -2496,10 +2408,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
@@ -2507,10 +2419,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>1</v>
@@ -2518,10 +2430,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1</v>
@@ -2529,10 +2441,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>1</v>
@@ -2540,10 +2452,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -2551,10 +2463,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
@@ -2562,10 +2474,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>1</v>
@@ -2573,10 +2485,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>1</v>
@@ -2584,10 +2496,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
@@ -2595,10 +2507,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>1</v>
@@ -2606,10 +2518,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>1</v>
@@ -2617,10 +2529,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
@@ -2628,10 +2540,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -2639,10 +2551,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>1</v>
@@ -2650,10 +2562,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
@@ -2661,10 +2573,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>1</v>
@@ -2672,10 +2584,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>1</v>
@@ -2683,10 +2595,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>1</v>
@@ -2694,10 +2606,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
@@ -2705,10 +2617,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
@@ -2716,10 +2628,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
@@ -2727,10 +2639,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
@@ -2738,10 +2650,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
@@ -2749,10 +2661,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>1</v>
@@ -2760,10 +2672,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
@@ -2771,10 +2683,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>1</v>
@@ -2782,10 +2694,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -2793,10 +2705,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
@@ -2804,10 +2716,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>1</v>
@@ -2815,10 +2727,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>1</v>
@@ -2826,10 +2738,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>1</v>
@@ -2837,10 +2749,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>1</v>
@@ -2848,10 +2760,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>1</v>
@@ -2859,10 +2771,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>1</v>
@@ -2873,21 +2785,21 @@
         <v>41</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>44</v>
@@ -2895,28 +2807,21 @@
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>47</v>
+        <v>119</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F51" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2933,10 +2838,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:G11"/>
+  <dimension ref="D7:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2947,26 +2852,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>44</v>
@@ -2974,28 +2880,21 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>47</v>
+        <v>169</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3014,14 +2913,14 @@
   </sheetPr>
   <dimension ref="D7:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
@@ -3033,19 +2932,19 @@
   <sheetData>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
@@ -3053,10 +2952,10 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>31</v>
@@ -3067,10 +2966,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>31</v>
@@ -3081,10 +2980,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>31</v>
@@ -3095,10 +2994,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>31</v>
@@ -3109,10 +3008,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>31</v>
@@ -3123,10 +3022,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>31</v>
@@ -3137,13 +3036,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -3151,13 +3050,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>1</v>
@@ -3165,13 +3064,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -3179,13 +3078,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
@@ -3193,13 +3092,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>1</v>
@@ -3207,13 +3106,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>1</v>
@@ -3221,10 +3120,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>37</v>
@@ -3235,10 +3134,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>37</v>
@@ -3249,10 +3148,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>37</v>
@@ -3263,10 +3162,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>37</v>
@@ -3277,10 +3176,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>37</v>
@@ -3294,10 +3193,10 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>37</v>
@@ -3311,26 +3210,16 @@
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="188">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -677,6 +677,10 @@
   </si>
   <si>
     <t>choerodon.code.site.task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.site.task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1058,7 +1062,7 @@
   <dimension ref="D7:O24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1672,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2592,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3139,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G10"/>
+  <dimension ref="D7:G11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3195,6 +3199,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="11" spans="4:7" ht="15.6">
+      <c r="F11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3210,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="196">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -685,6 +685,81 @@
   </si>
   <si>
     <t>choerodon.route.site.task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>route.organization.task</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/asgard/task-detail</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织任务管理路由</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>route.organization.task</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>route.organization.task</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>route.organization.task</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1059,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O24"/>
+  <dimension ref="D7:O25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1575,20 +1650,21 @@
       </c>
     </row>
     <row r="22" spans="4:15" ht="13.2">
-      <c r="F22" s="3" t="s">
-        <v>46</v>
+      <c r="D22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
@@ -1605,10 +1681,10 @@
     </row>
     <row r="23" spans="4:15" ht="13.2">
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>14</v>
@@ -1617,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>17</v>
@@ -1634,10 +1710,10 @@
     </row>
     <row r="24" spans="4:15" ht="13.2">
       <c r="F24" s="3" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>14</v>
@@ -1645,8 +1721,8 @@
       <c r="I24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>177</v>
+      <c r="J24" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>17</v>
@@ -1658,6 +1734,35 @@
         <v>0</v>
       </c>
       <c r="N24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" ht="13.2">
+      <c r="F25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1674,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P32"/>
+  <dimension ref="D7:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2455,80 +2560,80 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="4:16" ht="13.2">
+    <row r="29" spans="4:16" ht="26.4">
       <c r="F29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" ht="13.2">
+      <c r="F30" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="8" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O29" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" ht="26.4">
-      <c r="F30" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="O30" s="8">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="4:16" ht="26.4">
       <c r="F31" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>14</v>
@@ -2543,30 +2648,30 @@
         <v>68</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="4:16" ht="26.4">
       <c r="F32" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>179</v>
+        <v>120</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>15</v>
@@ -2575,9 +2680,41 @@
         <v>68</v>
       </c>
       <c r="N32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="6:15" ht="26.4">
+      <c r="F33" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O33" s="8">
         <v>70</v>
       </c>
     </row>
@@ -2594,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H52"/>
+  <dimension ref="D7:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3107,26 +3244,35 @@
       </c>
     </row>
     <row r="50" spans="4:7" ht="13.2">
+      <c r="D50" s="4"/>
       <c r="F50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>46</v>
+        <v>191</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="13.2">
       <c r="F51" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="13.2">
       <c r="F52" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="13.2">
+      <c r="F53" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3143,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G11"/>
+  <dimension ref="D7:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3185,10 +3331,10 @@
     </row>
     <row r="9" spans="4:7" ht="15.6">
       <c r="F9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>46</v>
+        <v>167</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="4:7" ht="15.6">
@@ -3196,7 +3342,7 @@
         <v>168</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="4:7" ht="15.6">
@@ -3204,6 +3350,14 @@
         <v>168</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="15.6">
+      <c r="F12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>187</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="197">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -760,6 +760,10 @@
       </rPr>
       <t>route.organization.task</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.task</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3291,7 +3295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3374,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I26"/>
+  <dimension ref="D7:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3682,6 +3686,18 @@
         <v>31</v>
       </c>
     </row>
+    <row r="27" spans="4:9" ht="13.2">
+      <c r="D27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -90,6 +90,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="1"/>
+      </rPr>
       <t>choerodon.</t>
     </r>
     <r>
@@ -204,73 +209,60 @@
     <t>Task Manage</t>
   </si>
   <si>
+    <t>template_configuration</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga-manager</t>
+  </si>
+  <si>
+    <t>Saga Manager</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>developer_board</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga</t>
+  </si>
+  <si>
+    <t>事务定义</t>
+  </si>
+  <si>
+    <t>Saga Define</t>
+  </si>
+  <si>
+    <t>saga_define</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga-instance</t>
+  </si>
+  <si>
+    <t>事务实例</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.task</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <charset val="1"/>
       </rPr>
-      <t>choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>route.organization.task</t>
-    </r>
-  </si>
-  <si>
-    <t>template_configuration</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga-manager</t>
-  </si>
-  <si>
-    <t>Saga Manager</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>developer_board</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga</t>
-  </si>
-  <si>
-    <t>事务定义</t>
-  </si>
-  <si>
-    <t>Saga Define</t>
-  </si>
-  <si>
-    <t>saga_define</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga-instance</t>
-  </si>
-  <si>
-    <t>事务实例</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.task</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <r>
       <t>choerodon.</t>
     </r>
     <r>
@@ -399,15 +391,18 @@
   <si>
     <t>DEFAULT</t>
   </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -460,6 +455,88 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,20 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -524,59 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -601,14 +604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -629,37 +624,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,138 +799,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,25 +846,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,6 +877,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -899,31 +909,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,16 +927,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,119 +945,119 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1073,7 +1068,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1463,7 +1457,7 @@
     </row>
     <row r="8" spans="4:14">
       <c r="D8" s="2"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1475,25 +1469,25 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="D9" s="2"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1511,13 +1505,13 @@
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1534,19 +1528,19 @@
       <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>0</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1563,19 +1557,19 @@
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1598,13 +1592,13 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1680,7 +1674,7 @@
       <c r="N7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -1691,7 +1685,7 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -1730,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>14</v>
@@ -1745,7 +1739,7 @@
         <v>43</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="4">
         <v>50</v>
@@ -1753,29 +1747,29 @@
     </row>
     <row r="10" spans="6:15">
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="O10" s="4">
         <v>60</v>
@@ -1783,13 +1777,13 @@
     </row>
     <row r="11" spans="6:15">
       <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>21</v>
@@ -1798,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>23</v>
@@ -1807,7 +1801,7 @@
         <v>43</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="4">
         <v>10</v>
@@ -1815,10 +1809,10 @@
     </row>
     <row r="12" spans="6:15">
       <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>41</v>
@@ -1830,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="13" spans="6:15">
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
@@ -1862,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>23</v>
@@ -1871,7 +1865,7 @@
         <v>43</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="4">
         <v>70</v>
@@ -1922,16 +1916,16 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -1943,7 +1937,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="15" spans="4:7">
@@ -1952,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="15" spans="4:7">
@@ -1961,7 +1955,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="15" spans="4:7">
@@ -1970,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="15" spans="4:7">
@@ -1979,7 +1973,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="15" spans="4:7">
@@ -1988,7 +1982,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" ht="15" spans="4:7">
@@ -1997,7 +1991,7 @@
         <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="15" spans="4:7">
@@ -2006,7 +2000,7 @@
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="15" spans="4:7">
@@ -2015,7 +2009,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="15" spans="4:7">
@@ -2023,8 +2017,8 @@
       <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
+      <c r="G17" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="15" spans="4:7">
@@ -2032,8 +2026,8 @@
       <c r="F18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>75</v>
+      <c r="G18" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:7">
@@ -2041,8 +2035,8 @@
       <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>76</v>
+      <c r="G19" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" ht="15" spans="4:7">
@@ -2050,8 +2044,8 @@
       <c r="F20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>77</v>
+      <c r="G20" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15" spans="4:7">
@@ -2059,8 +2053,8 @@
       <c r="F21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>78</v>
+      <c r="G21" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" ht="15" spans="4:7">
@@ -2068,8 +2062,8 @@
       <c r="F22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>79</v>
+      <c r="G22" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="15" spans="4:7">
@@ -2077,13 +2071,13 @@
       <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>80</v>
+      <c r="G23" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" ht="15" spans="6:7">
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
@@ -2091,23 +2085,23 @@
     </row>
     <row r="25" ht="15" spans="6:7">
       <c r="F25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="15" spans="6:7">
       <c r="F26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="15" spans="6:7">
       <c r="F27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -2115,63 +2109,63 @@
     </row>
     <row r="28" ht="15" spans="6:7">
       <c r="F28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="15" spans="6:7">
       <c r="F29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" ht="15" spans="6:7">
       <c r="F30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="15" spans="6:7">
       <c r="F31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" ht="15" spans="6:7">
       <c r="F32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="15" spans="6:7">
       <c r="F33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" ht="15" spans="6:7">
       <c r="F34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" ht="15" spans="6:7">
       <c r="F35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>28</v>
@@ -2179,82 +2173,82 @@
     </row>
     <row r="36" ht="15" spans="6:7">
       <c r="F36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" ht="15" spans="6:7">
       <c r="F37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="15" spans="6:7">
       <c r="F38" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="15" spans="6:7">
       <c r="F39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" ht="15" spans="6:7">
       <c r="F40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="15" spans="6:7">
       <c r="F41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" ht="15" spans="6:7">
       <c r="F42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" ht="15" spans="6:7">
       <c r="F43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" ht="15" spans="6:7">
       <c r="F44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" ht="15" spans="6:7">
       <c r="F45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2290,21 +2284,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -2312,15 +2306,15 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -2328,7 +2322,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
@@ -2355,10 +2349,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I9"/>
+  <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2376,19 +2370,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2397,7 +2391,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -2409,12 +2403,34 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -380,6 +380,9 @@
     <t>role/site/default/administrator</t>
   </si>
   <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -400,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -461,7 +464,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +493,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +539,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,29 +569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -557,53 +600,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -618,31 +621,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,151 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,6 +812,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -823,63 +835,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,151 +864,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2264,10 +2267,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G12"/>
+  <dimension ref="D7:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2336,6 +2339,30 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" ht="15.75" spans="6:7">
+      <c r="F13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:7">
+      <c r="F14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="6:7">
+      <c r="F15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2351,7 +2378,7 @@
   <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2370,19 +2397,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2391,7 +2418,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -2403,7 +2430,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
@@ -2414,7 +2441,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -2425,7 +2452,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -456,15 +456,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +488,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,7 +563,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,14 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -532,81 +601,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -621,187 +621,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,15 +812,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -856,6 +847,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -880,30 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -915,148 +915,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1713,7 +1713,7 @@
         <v>44</v>
       </c>
       <c r="O8" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="6:15">
@@ -1745,7 +1745,7 @@
         <v>48</v>
       </c>
       <c r="O9" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="6:15">
@@ -1775,7 +1775,7 @@
         <v>53</v>
       </c>
       <c r="O10" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="6:15">
@@ -1871,7 +1871,7 @@
         <v>48</v>
       </c>
       <c r="O13" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -2269,7 +2269,7 @@
   <sheetPr/>
   <dimension ref="D7:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -335,6 +335,9 @@
     <t>asgard-service.saga-instance.statistics</t>
   </si>
   <si>
+    <t>asgard-service.saga-task-instance.retry</t>
+  </si>
+  <si>
     <t>asgard-service.saga-instance.query</t>
   </si>
   <si>
@@ -403,8 +406,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -454,6 +457,110 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -466,53 +573,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,21 +589,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,59 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -621,25 +624,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,157 +780,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,21 +815,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,20 +833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +874,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -907,6 +901,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -915,148 +918,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1899,10 +1902,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H45"/>
+  <dimension ref="D7:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2168,10 +2171,10 @@
     </row>
     <row r="35" ht="15" spans="6:7">
       <c r="F35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="15" spans="6:7">
@@ -2179,7 +2182,7 @@
         <v>60</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="15" spans="6:7">
@@ -2252,6 +2255,14 @@
       </c>
       <c r="G45" s="6" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="6:7">
+      <c r="F46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2287,13 +2298,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>63</v>
@@ -2301,7 +2312,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -2309,7 +2320,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2317,7 +2328,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -2325,7 +2336,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -2333,7 +2344,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
@@ -2341,7 +2352,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -2349,7 +2360,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
@@ -2357,7 +2368,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -2397,19 +2408,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2418,7 +2429,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -2430,7 +2441,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
@@ -2441,7 +2452,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -2452,7 +2463,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="IAM_ROLE_PERMISSION" sheetId="4" r:id="rId4"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -371,6 +371,15 @@
     <t>asgard-service.schedule-task-site.delete</t>
   </si>
   <si>
+    <t>asgard-service.saga-task-instance.forceFailed</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance.unlockById</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-org.retry</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -406,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -457,6 +466,36 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -466,8 +505,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,52 +551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,26 +567,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,45 +619,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -624,37 +633,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,145 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,6 +824,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,6 +871,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,204 +924,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,54 +1090,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1395,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:O12"/>
   <sheetViews>
@@ -1403,27 +1412,27 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="8.66911764705882" customWidth="1"/>
+    <col min="2" max="2" width="6.33088235294118" customWidth="1"/>
+    <col min="3" max="3" width="7.10294117647059" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="38.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="24.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
+    <col min="6" max="6" width="38.4411764705882" customWidth="1"/>
+    <col min="7" max="7" width="24.3308823529412" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.4380952380952" customWidth="1"/>
+    <col min="10" max="10" width="19.4411764705882" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
-    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="13" max="13" width="18.7794117647059" customWidth="1"/>
+    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="16" max="1025" width="8.66911764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1619,34 +1628,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
-    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.4380952380952" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="41.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
+    <col min="1" max="1" width="8.66911764705882" customWidth="1"/>
+    <col min="2" max="2" width="5.44117647058824" customWidth="1"/>
+    <col min="3" max="3" width="6.33088235294118" customWidth="1"/>
+    <col min="4" max="4" width="20.4411764705882" customWidth="1"/>
+    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
+    <col min="6" max="6" width="41.5514705882353" customWidth="1"/>
+    <col min="7" max="7" width="16.7794117647059" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="61.7809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="8.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="19.6666666666667" customWidth="1"/>
-    <col min="15" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="11" max="11" width="61.7794117647059" customWidth="1"/>
+    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
+    <col min="13" max="13" width="8.66911764705882" customWidth="1"/>
+    <col min="14" max="14" width="19.6691176470588" customWidth="1"/>
+    <col min="15" max="1025" width="8.66911764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" ht="12.75" customHeight="1" spans="4:16">
       <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" ht="15.2" spans="6:15">
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" ht="15.2" spans="6:15">
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" ht="15.2" spans="6:15">
       <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" ht="15.2" spans="6:15">
       <c r="F11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" ht="15.2" spans="6:15">
       <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" ht="15.2" spans="6:15">
       <c r="F13" s="4" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" ht="15.2" spans="6:15">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1900,27 +1909,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:H46"/>
+  <dimension ref="D7:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.78095238095238" customWidth="1"/>
-    <col min="2" max="2" width="6.78095238095238" customWidth="1"/>
-    <col min="3" max="3" width="6.21904761904762" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="68.2190476190476" customWidth="1"/>
-    <col min="7" max="7" width="76.552380952381" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="5.77941176470588" customWidth="1"/>
+    <col min="2" max="2" width="6.77941176470588" customWidth="1"/>
+    <col min="3" max="3" width="6.22058823529412" customWidth="1"/>
+    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
+    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
+    <col min="6" max="6" width="68.2205882352941" customWidth="1"/>
+    <col min="7" max="7" width="76.5514705882353" customWidth="1"/>
+    <col min="8" max="1025" width="8.66911764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" ht="12.75" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="4:7">
+    <row r="8" ht="17.6" spans="4:7">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
         <v>39</v>
@@ -1946,7 +1955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="4:7">
+    <row r="9" ht="17.6" spans="4:7">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
         <v>39</v>
@@ -1955,7 +1964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="4:7">
+    <row r="10" ht="17.6" spans="4:7">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
         <v>39</v>
@@ -1964,7 +1973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="4:7">
+    <row r="11" ht="17.6" spans="4:7">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
         <v>39</v>
@@ -1973,7 +1982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="4:7">
+    <row r="12" ht="17.6" spans="4:7">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
         <v>39</v>
@@ -1982,7 +1991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="4:7">
+    <row r="13" ht="17.6" spans="4:7">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
         <v>45</v>
@@ -1991,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="4:7">
+    <row r="14" ht="17.6" spans="4:7">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
         <v>45</v>
@@ -2000,7 +2009,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="4:7">
+    <row r="15" ht="17.6" spans="4:7">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
         <v>45</v>
@@ -2009,7 +2018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="4:7">
+    <row r="16" ht="17.6" spans="4:7">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
         <v>45</v>
@@ -2018,7 +2027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="4:7">
+    <row r="17" ht="17.6" spans="4:7">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
         <v>45</v>
@@ -2027,7 +2036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="4:7">
+    <row r="18" ht="17.6" spans="4:7">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
         <v>45</v>
@@ -2036,7 +2045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="4:7">
+    <row r="19" ht="17.6" spans="4:7">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
         <v>45</v>
@@ -2045,7 +2054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="4:7">
+    <row r="20" ht="17.6" spans="4:7">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
         <v>45</v>
@@ -2054,7 +2063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="4:7">
+    <row r="21" ht="17.6" spans="4:7">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
         <v>45</v>
@@ -2063,7 +2072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="4:7">
+    <row r="22" ht="17.6" spans="4:7">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
         <v>45</v>
@@ -2072,7 +2081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="4:7">
+    <row r="23" ht="17.6" spans="4:7">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
         <v>45</v>
@@ -2081,7 +2090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:7">
+    <row r="24" ht="17.6" spans="6:7">
       <c r="F24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:7">
+    <row r="25" ht="17.6" spans="6:7">
       <c r="F25" s="6" t="s">
         <v>54</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:7">
+    <row r="26" ht="17.6" spans="6:7">
       <c r="F26" s="6" t="s">
         <v>54</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:7">
+    <row r="27" ht="17.6" spans="6:7">
       <c r="F27" s="6" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:7">
+    <row r="28" ht="17.6" spans="6:7">
       <c r="F28" s="6" t="s">
         <v>58</v>
       </c>
@@ -2121,7 +2130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:7">
+    <row r="29" ht="17.6" spans="6:7">
       <c r="F29" s="6" t="s">
         <v>58</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:7">
+    <row r="30" ht="17.6" spans="6:7">
       <c r="F30" s="6" t="s">
         <v>58</v>
       </c>
@@ -2137,7 +2146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:7">
+    <row r="31" ht="17.6" spans="6:7">
       <c r="F31" s="6" t="s">
         <v>58</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:7">
+    <row r="32" ht="17.6" spans="6:7">
       <c r="F32" s="6" t="s">
         <v>58</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:7">
+    <row r="33" ht="17.6" spans="6:7">
       <c r="F33" s="6" t="s">
         <v>58</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:7">
+    <row r="34" ht="17.6" spans="6:7">
       <c r="F34" s="6" t="s">
         <v>58</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:7">
+    <row r="35" ht="17.6" spans="6:7">
       <c r="F35" s="6" t="s">
         <v>58</v>
       </c>
@@ -2177,7 +2186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:7">
+    <row r="36" ht="17.6" spans="6:7">
       <c r="F36" s="6" t="s">
         <v>60</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:7">
+    <row r="37" ht="17.6" spans="6:7">
       <c r="F37" s="6" t="s">
         <v>60</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:7">
+    <row r="38" ht="17.6" spans="6:7">
       <c r="F38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:7">
+    <row r="39" ht="17.6" spans="6:7">
       <c r="F39" s="6" t="s">
         <v>60</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:7">
+    <row r="40" ht="17.6" spans="6:7">
       <c r="F40" s="6" t="s">
         <v>60</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:7">
+    <row r="41" ht="17.6" spans="6:7">
       <c r="F41" s="6" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="6:7">
+    <row r="42" ht="17.6" spans="6:7">
       <c r="F42" s="6" t="s">
         <v>60</v>
       </c>
@@ -2233,7 +2242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:7">
+    <row r="43" ht="17.6" spans="6:7">
       <c r="F43" s="6" t="s">
         <v>60</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:7">
+    <row r="44" ht="17.6" spans="6:7">
       <c r="F44" s="6" t="s">
         <v>60</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:7">
+    <row r="45" ht="17.6" spans="6:7">
       <c r="F45" s="6" t="s">
         <v>60</v>
       </c>
@@ -2257,12 +2266,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:7">
+    <row r="46" ht="17.6" spans="6:7">
       <c r="F46" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G15"/>
   <sheetViews>
@@ -2284,91 +2317,91 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="6.10294117647059" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.21904761904762" customWidth="1"/>
-    <col min="4" max="4" width="25.8857142857143" customWidth="1"/>
-    <col min="5" max="5" width="7.21904761904762" customWidth="1"/>
-    <col min="6" max="6" width="42.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="40.4380952380952" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.22058823529412" customWidth="1"/>
+    <col min="4" max="4" width="25.8823529411765" customWidth="1"/>
+    <col min="5" max="5" width="7.22058823529412" customWidth="1"/>
+    <col min="6" max="6" width="42.6691176470588" customWidth="1"/>
+    <col min="7" max="7" width="40.4411764705882" customWidth="1"/>
+    <col min="8" max="1025" width="8.66911764705882" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" ht="15.2" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="6:7">
+    <row r="8" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="6:7">
+    <row r="15" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -2385,7 +2418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:I11"/>
   <sheetViews>
@@ -2393,34 +2426,34 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
-    <col min="3" max="3" width="5.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.66911764705882" customWidth="1"/>
+    <col min="2" max="2" width="5.44117647058824" customWidth="1"/>
+    <col min="3" max="3" width="5.66911764705882" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="56.7809523809524" customWidth="1"/>
-    <col min="8" max="8" width="35.2190476190476" customWidth="1"/>
+    <col min="6" max="6" width="20.4411764705882" customWidth="1"/>
+    <col min="7" max="7" width="56.7794117647059" customWidth="1"/>
+    <col min="8" max="8" width="35.2205882352941" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" ht="15.2" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2429,7 +2462,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
@@ -2441,7 +2474,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>45</v>
@@ -2452,7 +2485,7 @@
     </row>
     <row r="10" spans="6:8">
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>39</v>
@@ -2463,7 +2496,7 @@
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>45</v>
@@ -2473,7 +2506,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -140,6 +140,28 @@
     <t>全局任务管理路由</t>
   </si>
   <si>
+    <r>
+      <t>choerodon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>route.project.saga-instance</t>
+    </r>
+  </si>
+  <si>
+    <t>/asgard/project-saga-instance</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目事务实例路由</t>
+  </si>
+  <si>
     <t>IAM_MENU_B</t>
   </si>
   <si>
@@ -248,6 +270,21 @@
     <t>choerodon.code.site.task</t>
   </si>
   <si>
+    <t>choerodon.code.project.management</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.saga-instance</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -380,6 +417,30 @@
     <t>asgard-service.saga-task-instance-org.retry</t>
   </si>
   <si>
+    <t>choerodon.route.project.saga-instance</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-project.pagingQuery</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-project.statistics</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-instance-project.query</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.pagingQuery</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.forceFailed</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.retry</t>
+  </si>
+  <si>
+    <t>asgard-service.saga-task-instance-proj.unlockById</t>
+  </si>
+  <si>
     <t>IAM_ROLE_PERMISSION</t>
   </si>
   <si>
@@ -395,6 +456,12 @@
     <t>role/site/default/developer</t>
   </si>
   <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -407,7 +474,13 @@
     <t>DEFAULT</t>
   </si>
   <si>
+    <t>organization_project</t>
+  </si>
+  <si>
     <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
   </si>
 </sst>
 </file>
@@ -415,10 +488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -466,6 +539,13 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -477,6 +557,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,15 +638,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -513,23 +653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,14 +669,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -559,47 +677,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,14 +692,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -633,13 +706,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,169 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,24 +897,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -856,6 +911,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,11 +956,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,23 +966,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,152 +1000,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,59 +1158,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1404,35 +1479,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:O12"/>
+  <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.66911764705882" customWidth="1"/>
-    <col min="2" max="2" width="6.33088235294118" customWidth="1"/>
-    <col min="3" max="3" width="7.10294117647059" customWidth="1"/>
+    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="7.1047619047619" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
-    <col min="6" max="6" width="38.4411764705882" customWidth="1"/>
-    <col min="7" max="7" width="24.3308823529412" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="38.4380952380952" customWidth="1"/>
+    <col min="7" max="7" width="24.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.4411764705882" customWidth="1"/>
+    <col min="10" max="10" width="19.4380952380952" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="13" width="18.7794117647059" customWidth="1"/>
-    <col min="14" max="14" width="19.3308823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
+    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.66911764705882" customWidth="1"/>
+    <col min="16" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1547,7 @@
     </row>
     <row r="8" spans="4:14">
       <c r="D8" s="2"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1484,25 +1559,25 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:14">
       <c r="D9" s="2"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1520,13 +1595,13 @@
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="11">
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1543,19 +1618,19 @@
       <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>0</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>0</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1572,19 +1647,19 @@
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1607,13 +1682,44 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="11">
         <v>0</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="4:14">
+      <c r="D13" s="2"/>
+      <c r="E13"/>
+      <c r="F13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1628,36 +1734,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P14"/>
+  <dimension ref="D7:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.66911764705882" customWidth="1"/>
-    <col min="2" max="2" width="5.44117647058824" customWidth="1"/>
-    <col min="3" max="3" width="6.33088235294118" customWidth="1"/>
-    <col min="4" max="4" width="20.4411764705882" customWidth="1"/>
-    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
-    <col min="6" max="6" width="41.5514705882353" customWidth="1"/>
-    <col min="7" max="7" width="16.7794117647059" customWidth="1"/>
+    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
+    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.4380952380952" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="41.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="61.7794117647059" customWidth="1"/>
-    <col min="12" max="12" width="19.2205882352941" customWidth="1"/>
-    <col min="13" max="13" width="8.66911764705882" customWidth="1"/>
-    <col min="14" max="14" width="19.6691176470588" customWidth="1"/>
-    <col min="15" max="1025" width="8.66911764705882" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="61.7809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
+    <col min="13" max="13" width="8.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.6666666666667" customWidth="1"/>
+    <col min="15" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:16">
+    <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -1666,45 +1772,45 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15.2" spans="6:15">
+    <row r="8" spans="6:15">
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>12</v>
@@ -1713,30 +1819,30 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O8" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15.2" spans="6:15">
+    <row r="9" spans="6:15">
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>18</v>
@@ -1745,60 +1851,60 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O9" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="15.2" spans="6:15">
+    <row r="10" spans="6:15">
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O10" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="11" ht="15.2" spans="6:15">
+    <row r="11" spans="6:15">
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>21</v>
@@ -1807,30 +1913,30 @@
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15.2" spans="6:15">
+    <row r="12" spans="6:15">
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>25</v>
@@ -1839,30 +1945,30 @@
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O12" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="15.2" spans="6:15">
+    <row r="13" spans="6:15">
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>28</v>
@@ -1871,32 +1977,80 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O13" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="15.2" spans="6:15">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+    <row r="14" customFormat="1" spans="6:15">
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="6:15">
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1909,393 +2063,475 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H49"/>
+  <dimension ref="D7:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.77941176470588" customWidth="1"/>
-    <col min="2" max="2" width="6.77941176470588" customWidth="1"/>
-    <col min="3" max="3" width="6.22058823529412" customWidth="1"/>
-    <col min="4" max="4" width="23.7794117647059" customWidth="1"/>
-    <col min="5" max="5" width="8.66911764705882" customWidth="1"/>
-    <col min="6" max="6" width="68.2205882352941" customWidth="1"/>
-    <col min="7" max="7" width="76.5514705882353" customWidth="1"/>
-    <col min="8" max="1025" width="8.66911764705882" customWidth="1"/>
+    <col min="1" max="1" width="5.78095238095238" customWidth="1"/>
+    <col min="2" max="2" width="6.78095238095238" customWidth="1"/>
+    <col min="3" max="3" width="6.21904761904762" customWidth="1"/>
+    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="68.2190476190476" customWidth="1"/>
+    <col min="7" max="7" width="76.552380952381" customWidth="1"/>
+    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:8">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="17.6" spans="4:7">
+    <row r="8" ht="15.75" spans="4:7">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="4:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="4:7">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="4:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="4:7">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="4:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="4:7">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" spans="4:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="4:7">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="4:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="4:7">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" spans="4:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="4:7">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" spans="4:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="4:7">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" ht="17.6" spans="4:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="4:7">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" spans="4:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="4:7">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" spans="4:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="4:7">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="17.6" spans="4:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="4:7">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" ht="17.6" spans="4:7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="4:7">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" spans="4:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="4:7">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" ht="17.6" spans="4:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="4:7">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" spans="4:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="4:7">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" ht="17.6" spans="6:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:7">
       <c r="F24" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" ht="17.6" spans="6:7">
+    <row r="25" ht="15" spans="6:7">
       <c r="F25" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" ht="17.6" spans="6:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:7">
       <c r="F26" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" ht="17.6" spans="6:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:7">
       <c r="F27" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="17.6" spans="6:7">
+    <row r="28" ht="15" spans="6:7">
       <c r="F28" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" ht="17.6" spans="6:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="6:7">
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" ht="17.6" spans="6:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="6:7">
       <c r="F30" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" ht="17.6" spans="6:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="6:7">
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" ht="17.6" spans="6:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="6:7">
       <c r="F32" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" ht="17.6" spans="6:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:7">
       <c r="F33" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" ht="17.6" spans="6:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="6:7">
       <c r="F34" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" ht="17.6" spans="6:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="6:7">
       <c r="F35" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" ht="17.6" spans="6:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:7">
       <c r="F36" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="6:7">
+    <row r="37" ht="15" spans="6:7">
       <c r="F37" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" ht="17.6" spans="6:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:7">
       <c r="F38" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="6:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="6:7">
       <c r="F39" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" ht="17.6" spans="6:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:7">
       <c r="F40" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="6:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="6:7">
       <c r="F41" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="6:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:7">
       <c r="F42" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="6:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="6:7">
       <c r="F43" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" ht="17.6" spans="6:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:7">
       <c r="F44" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" ht="17.6" spans="6:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:7">
       <c r="F45" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" ht="17.6" spans="6:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="6:7">
       <c r="F46" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7">
-      <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7">
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7">
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="6:7">
+      <c r="F47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="6:7">
+      <c r="F48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="6:7">
+      <c r="F49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="15" spans="4:7">
+      <c r="D50" s="2"/>
+      <c r="E50"/>
+      <c r="F50" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="15" spans="4:7">
+      <c r="D51" s="2"/>
+      <c r="E51"/>
+      <c r="F51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="15" spans="4:7">
+      <c r="D52" s="2"/>
+      <c r="E52"/>
+      <c r="F52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="15" spans="4:7">
+      <c r="D53" s="2"/>
+      <c r="E53"/>
+      <c r="F53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="15" spans="4:7">
+      <c r="D54" s="2"/>
+      <c r="E54"/>
+      <c r="F54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="6:7">
+      <c r="F55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="6:7">
+      <c r="F56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="6:7">
+      <c r="F57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="6:7">
+      <c r="F58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2309,102 +2545,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G15"/>
+  <dimension ref="D7:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.10294117647059" customWidth="1"/>
+    <col min="1" max="1" width="6.1047619047619" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.22058823529412" customWidth="1"/>
-    <col min="4" max="4" width="25.8823529411765" customWidth="1"/>
-    <col min="5" max="5" width="7.22058823529412" customWidth="1"/>
-    <col min="6" max="6" width="42.6691176470588" customWidth="1"/>
-    <col min="7" max="7" width="40.4411764705882" customWidth="1"/>
-    <col min="8" max="1025" width="8.66911764705882" customWidth="1"/>
+    <col min="3" max="3" width="7.21904761904762" customWidth="1"/>
+    <col min="4" max="4" width="25.8857142857143" customWidth="1"/>
+    <col min="5" max="5" width="7.21904761904762" customWidth="1"/>
+    <col min="6" max="6" width="42.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="40.4380952380952" customWidth="1"/>
+    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:7">
+    <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="6:7">
+      <c r="F16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="6:7">
+      <c r="F17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2418,42 +2670,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I11"/>
+  <dimension ref="D7:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.66911764705882" customWidth="1"/>
-    <col min="2" max="2" width="5.44117647058824" customWidth="1"/>
-    <col min="3" max="3" width="5.66911764705882" customWidth="1"/>
+    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
+    <col min="3" max="3" width="5.66666666666667" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.4411764705882" customWidth="1"/>
-    <col min="7" max="7" width="56.7794117647059" customWidth="1"/>
-    <col min="8" max="8" width="35.2205882352941" customWidth="1"/>
+    <col min="6" max="6" width="20.4380952380952" customWidth="1"/>
+    <col min="7" max="7" width="56.7809523809524" customWidth="1"/>
+    <col min="8" max="8" width="35.2190476190476" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:9">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2462,10 +2714,10 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
@@ -2474,35 +2726,70 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" customFormat="1" spans="4:8">
+      <c r="D10" s="2"/>
+      <c r="E10"/>
       <c r="F10" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="6:8">
+      <c r="F13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -141,6 +141,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="1"/>
+      </rPr>
       <t>choerodon.</t>
     </r>
     <r>
@@ -285,6 +290,9 @@
     <t>choerodon.code.project.saga-instance</t>
   </si>
   <si>
+    <t>choerodon.code.project.operation</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -488,9 +496,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -539,6 +547,35 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -549,16 +586,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,30 +622,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,6 +645,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -615,25 +677,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,53 +700,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -706,19 +714,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,31 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,79 +882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,43 +894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +905,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -915,15 +956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -935,6 +967,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,191 +1000,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,7 +1491,7 @@
   <sheetPr/>
   <dimension ref="D7:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1702,6 @@
     </row>
     <row r="13" customFormat="1" spans="4:14">
       <c r="D13" s="2"/>
-      <c r="E13"/>
       <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
@@ -1736,10 +1743,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P15"/>
+  <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1992,7 +1999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="6:15">
+    <row r="14" customFormat="1" spans="6:16">
       <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2019,8 +2026,11 @@
       <c r="O14" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="6:15">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="6:16">
       <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
@@ -2050,6 +2060,41 @@
       </c>
       <c r="O15" s="4">
         <v>10</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="6:15">
+      <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="4">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2067,8 +2112,8 @@
   <sheetPr/>
   <dimension ref="D7:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="$A54:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2085,16 +2130,16 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -2106,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="15" spans="4:7">
@@ -2115,7 +2160,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" ht="15" spans="4:7">
@@ -2124,7 +2169,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="15" spans="4:7">
@@ -2133,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" ht="15" spans="4:7">
@@ -2142,7 +2187,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="15" spans="4:7">
@@ -2151,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="15" spans="4:7">
@@ -2160,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="15" spans="4:7">
@@ -2169,7 +2214,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="15" spans="4:7">
@@ -2178,7 +2223,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="15" spans="4:7">
@@ -2187,7 +2232,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="15" spans="4:7">
@@ -2196,7 +2241,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="15" spans="4:7">
@@ -2205,7 +2250,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="15" spans="4:7">
@@ -2214,7 +2259,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="15" spans="4:7">
@@ -2223,7 +2268,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" ht="15" spans="4:7">
@@ -2232,7 +2277,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" ht="15" spans="4:7">
@@ -2241,7 +2286,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="15" spans="6:7">
@@ -2257,7 +2302,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" ht="15" spans="6:7">
@@ -2265,7 +2310,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" ht="15" spans="6:7">
@@ -2281,7 +2326,7 @@
         <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="15" spans="6:7">
@@ -2289,7 +2334,7 @@
         <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="15" spans="6:7">
@@ -2297,7 +2342,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="15" spans="6:7">
@@ -2305,7 +2350,7 @@
         <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="15" spans="6:7">
@@ -2313,7 +2358,7 @@
         <v>62</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" ht="15" spans="6:7">
@@ -2321,7 +2366,7 @@
         <v>62</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="15" spans="6:7">
@@ -2329,7 +2374,7 @@
         <v>62</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="15" spans="6:7">
@@ -2337,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="15" spans="6:7">
@@ -2353,7 +2398,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="15" spans="6:7">
@@ -2361,7 +2406,7 @@
         <v>64</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" ht="15" spans="6:7">
@@ -2369,7 +2414,7 @@
         <v>64</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" ht="15" spans="6:7">
@@ -2377,7 +2422,7 @@
         <v>64</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" ht="15" spans="6:7">
@@ -2385,7 +2430,7 @@
         <v>64</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" ht="15" spans="6:7">
@@ -2393,7 +2438,7 @@
         <v>64</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="15" spans="6:7">
@@ -2401,7 +2446,7 @@
         <v>64</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" ht="15" spans="6:7">
@@ -2409,7 +2454,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="15" spans="6:7">
@@ -2417,7 +2462,7 @@
         <v>64</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" ht="15" spans="6:7">
@@ -2425,7 +2470,7 @@
         <v>64</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" ht="15" spans="6:7">
@@ -2433,7 +2478,7 @@
         <v>62</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" ht="15" spans="6:7">
@@ -2441,7 +2486,7 @@
         <v>62</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" ht="15" spans="6:7">
@@ -2449,57 +2494,55 @@
         <v>43</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15" spans="4:7">
       <c r="D50" s="2"/>
-      <c r="E50"/>
       <c r="F50" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="15" spans="4:7">
       <c r="D51" s="2"/>
-      <c r="E51"/>
       <c r="F51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="15" spans="4:7">
       <c r="D52" s="2"/>
-      <c r="E52"/>
       <c r="F52" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="15" spans="4:7">
       <c r="D53" s="2"/>
-      <c r="E53"/>
       <c r="F53" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="15" spans="4:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="15" spans="4:8">
       <c r="D54" s="2"/>
-      <c r="E54"/>
       <c r="F54" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="15" spans="6:7">
@@ -2507,7 +2550,7 @@
         <v>69</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" ht="15" spans="6:7">
@@ -2515,7 +2558,7 @@
         <v>69</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" ht="15" spans="6:7">
@@ -2523,7 +2566,7 @@
         <v>69</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" ht="15" spans="6:7">
@@ -2531,7 +2574,7 @@
         <v>69</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2567,21 +2610,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -2589,7 +2632,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2597,7 +2640,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -2605,7 +2648,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -2613,7 +2656,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
@@ -2621,7 +2664,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -2629,7 +2672,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
@@ -2637,7 +2680,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -2645,18 +2688,18 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2717,7 @@
   <sheetPr/>
   <dimension ref="D7:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2693,19 +2736,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2714,7 +2757,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
@@ -2726,7 +2769,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2737,20 +2780,19 @@
     </row>
     <row r="10" customFormat="1" spans="4:8">
       <c r="D10" s="2"/>
-      <c r="E10"/>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>43</v>
@@ -2761,7 +2803,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>49</v>
@@ -2772,18 +2814,18 @@
     </row>
     <row r="13" customFormat="1" spans="6:8">
       <c r="F13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>69</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -302,6 +302,9 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -496,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -549,8 +552,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -578,30 +574,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,17 +613,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,33 +651,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,8 +688,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -714,109 +717,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,73 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,69 +908,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,151 +945,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2110,13 +2113,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H58"/>
+  <dimension ref="D7:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="$A54:$XFD54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.78095238095238" customWidth="1"/>
     <col min="2" max="2" width="6.78095238095238" customWidth="1"/>
@@ -2128,7 +2131,7 @@
     <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
         <v>71</v>
       </c>
@@ -2144,437 +2147,557 @@
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="4:7">
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="4:9">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="4:7">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="4:9">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="4:7">
+        <v>76</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="4:9">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="4:7">
+        <v>77</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="4:9">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="4:7">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="4:9">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="4:7">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="4:9">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="4:7">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="4:9">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="4:7">
+        <v>81</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="4:9">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="4:7">
+        <v>82</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="4:9">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="4:7">
+        <v>83</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="4:9">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="4:7">
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="4:9">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="4:7">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="4:9">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="4:7">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="4:9">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="4:7">
+        <v>87</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="4:9">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="4:7">
+        <v>88</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="4:9">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="4:7">
+        <v>89</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="4:9">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="6:7">
+        <v>90</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="6:7">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="6:7">
+        <v>91</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="6:7">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="6:7">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="6:7">
+        <v>93</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="6:7">
+        <v>94</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="6:7">
+        <v>95</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="6:7">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
         <v>62</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="6:7">
+        <v>97</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="6:7">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="6:7">
+        <v>98</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="6:7">
+        <v>99</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="6:7">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="6:7">
+        <v>101</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="6:7">
+        <v>102</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="6:7">
+        <v>103</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="6:7">
+        <v>104</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:7">
+        <v>105</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="6:7">
+        <v>106</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="6:7">
+        <v>107</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="6:7">
+        <v>108</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="6:7">
+        <v>109</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="6:7">
+        <v>110</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="15" spans="4:9">
+      <c r="D47" s="2"/>
       <c r="F47" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="6:7">
+        <v>111</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="15" spans="4:9">
+      <c r="D48" s="2"/>
       <c r="F48" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="6:7">
+        <v>112</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="15" spans="4:9">
+      <c r="D49" s="2"/>
       <c r="F49" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" ht="15" spans="4:7">
+        <v>113</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="15" spans="4:9">
       <c r="D50" s="2"/>
       <c r="F50" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="15" spans="4:7">
+        <v>114</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="15" spans="4:8">
       <c r="D51" s="2"/>
       <c r="F51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="15" spans="4:7">
-      <c r="D52" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="6:9">
       <c r="F52" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="15" spans="4:7">
-      <c r="D53" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="6:9">
       <c r="F53" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="15" spans="4:8">
-      <c r="D54" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="6:7">
+        <v>117</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="6:7">
-      <c r="F56" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="6:7">
-      <c r="F57" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="6:7">
-      <c r="F58" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2610,13 +2733,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>73</v>
@@ -2624,7 +2747,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -2632,7 +2755,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2640,7 +2763,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -2648,7 +2771,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -2656,7 +2779,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
@@ -2664,7 +2787,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -2672,7 +2795,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
@@ -2680,7 +2803,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -2688,18 +2811,18 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2736,19 +2859,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2757,7 +2880,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
@@ -2769,7 +2892,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2781,18 +2904,18 @@
     <row r="10" customFormat="1" spans="4:8">
       <c r="D10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>43</v>
@@ -2803,7 +2926,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>49</v>
@@ -2814,18 +2937,18 @@
     </row>
     <row r="13" customFormat="1" spans="6:8">
       <c r="F13" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>69</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="134">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -224,70 +224,73 @@
     <t>menu_item</t>
   </si>
   <si>
+    <t>ballot</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.task</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <t>Task Manage</t>
+  </si>
+  <si>
+    <t>template_configuration</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga-manager</t>
+  </si>
+  <si>
+    <t>Saga Manager</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>developer_board</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga</t>
+  </si>
+  <si>
+    <t>事务定义</t>
+  </si>
+  <si>
+    <t>Saga Define</t>
+  </si>
+  <si>
+    <t>saga_define</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga-instance</t>
+  </si>
+  <si>
+    <t>事务实例</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.task</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.management</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.saga-instance</t>
+  </si>
+  <si>
     <t>instance_outline</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.task</t>
-  </si>
-  <si>
-    <t>任务管理</t>
-  </si>
-  <si>
-    <t>Task Manage</t>
-  </si>
-  <si>
-    <t>template_configuration</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga-manager</t>
-  </si>
-  <si>
-    <t>Saga Manager</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>developer_board</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga</t>
-  </si>
-  <si>
-    <t>事务定义</t>
-  </si>
-  <si>
-    <t>Saga Define</t>
-  </si>
-  <si>
-    <t>saga_define</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga-instance</t>
-  </si>
-  <si>
-    <t>事务实例</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.task</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.management</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.saga-instance</t>
   </si>
   <si>
     <t>choerodon.code.project.operation</t>
@@ -500,8 +503,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -552,16 +555,31 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,9 +592,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,43 +659,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -667,39 +683,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,187 +720,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,17 +911,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -941,7 +933,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,198 +1001,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2059,7 +2062,7 @@
         <v>47</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="O15" s="4">
         <v>10</v>
@@ -2085,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>32</v>
@@ -2115,7 +2118,7 @@
   <sheetPr/>
   <dimension ref="D7:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C5" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -2133,22 +2136,22 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="4:9">
@@ -2157,7 +2160,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2169,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2181,7 +2184,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2193,7 +2196,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2205,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2217,7 +2220,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2229,7 +2232,7 @@
         <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2241,7 +2244,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2253,7 +2256,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2265,7 +2268,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2277,7 +2280,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2289,7 +2292,7 @@
         <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2301,7 +2304,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2313,7 +2316,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2325,7 +2328,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2337,7 +2340,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2359,7 +2362,7 @@
         <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2370,7 +2373,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2392,7 +2395,7 @@
         <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2403,7 +2406,7 @@
         <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2414,7 +2417,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2425,7 +2428,7 @@
         <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2436,7 +2439,7 @@
         <v>62</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2458,7 +2461,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2469,7 +2472,7 @@
         <v>64</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2480,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2491,7 +2494,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2502,7 +2505,7 @@
         <v>64</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2513,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2524,7 +2527,7 @@
         <v>64</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2535,7 +2538,7 @@
         <v>64</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2546,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2557,7 +2560,7 @@
         <v>64</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2568,7 +2571,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2579,7 +2582,7 @@
         <v>62</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2590,7 +2593,7 @@
         <v>43</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2602,7 +2605,7 @@
         <v>69</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2614,7 +2617,7 @@
         <v>69</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2626,7 +2629,7 @@
         <v>69</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2638,7 +2641,7 @@
         <v>69</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2650,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2661,7 +2664,7 @@
         <v>69</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2672,7 +2675,7 @@
         <v>69</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2683,7 +2686,7 @@
         <v>69</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2694,7 +2697,7 @@
         <v>69</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2733,21 +2736,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2763,7 +2766,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -2771,7 +2774,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
@@ -2803,7 +2806,7 @@
     </row>
     <row r="15" ht="15.75" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
@@ -2811,18 +2814,18 @@
     </row>
     <row r="16" ht="15.75" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2859,19 +2862,19 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
@@ -2880,7 +2883,7 @@
     <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>43</v>
@@ -2892,7 +2895,7 @@
     <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
@@ -2904,18 +2907,18 @@
     <row r="10" customFormat="1" spans="4:8">
       <c r="D10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>43</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="12" spans="6:8">
       <c r="F12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>49</v>
@@ -2937,18 +2940,18 @@
     </row>
     <row r="13" customFormat="1" spans="6:8">
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>69</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -254,6 +254,9 @@
     <t>developer_board</t>
   </si>
   <si>
+    <t>choerodon.code.site.task</t>
+  </si>
+  <si>
     <t>choerodon.code.site.saga</t>
   </si>
   <si>
@@ -270,9 +273,6 @@
   </si>
   <si>
     <t>事务实例</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.task</t>
   </si>
   <si>
     <t>choerodon.code.project.management</t>
@@ -502,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -556,7 +556,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +600,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,20 +646,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -607,14 +653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,18 +667,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,48 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,7 +720,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,121 +894,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,16 +914,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -968,6 +988,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -976,186 +1011,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1749,10 +1749,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P16"/>
+  <dimension ref="D7:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1815,7 +1815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="6:16">
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1846,8 +1846,11 @@
       <c r="O8" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="6:15">
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16">
       <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
@@ -1878,114 +1881,118 @@
       <c r="O9" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="6:15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="6:15">
       <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O10" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="6:15">
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16">
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O12" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="6:15">
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1996,102 +2003,100 @@
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O13" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="6:16">
+    <row r="14" customFormat="1" spans="6:15">
       <c r="F14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="4">
-        <v>70</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="6:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15">
       <c r="F15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O15" s="4">
         <v>10</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="6:15">
+    </row>
+    <row r="16" spans="6:15">
       <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>30</v>
+      <c r="I16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>47</v>
@@ -2100,6 +2105,139 @@
         <v>48</v>
       </c>
       <c r="O16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16">
+      <c r="F17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="4">
+        <v>80</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="6:16">
+      <c r="F18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4">
+        <v>70</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="6:16">
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="4">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="6:15">
+      <c r="F20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="4">
         <v>30</v>
       </c>
     </row>
@@ -2348,7 +2486,7 @@
     </row>
     <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
@@ -2359,7 +2497,7 @@
     </row>
     <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>92</v>
@@ -2370,7 +2508,7 @@
     </row>
     <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>93</v>
@@ -2381,7 +2519,7 @@
     </row>
     <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -2392,7 +2530,7 @@
     </row>
     <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>94</v>
@@ -2403,7 +2541,7 @@
     </row>
     <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>95</v>
@@ -2414,7 +2552,7 @@
     </row>
     <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>96</v>
@@ -2425,7 +2563,7 @@
     </row>
     <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>97</v>
@@ -2436,7 +2574,7 @@
     </row>
     <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>98</v>
@@ -2447,7 +2585,7 @@
     </row>
     <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>28</v>
@@ -2458,7 +2596,7 @@
     </row>
     <row r="34" ht="15" spans="6:9">
       <c r="F34" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>99</v>
@@ -2469,7 +2607,7 @@
     </row>
     <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>100</v>
@@ -2480,7 +2618,7 @@
     </row>
     <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>101</v>
@@ -2491,7 +2629,7 @@
     </row>
     <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>102</v>
@@ -2502,7 +2640,7 @@
     </row>
     <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>103</v>
@@ -2513,7 +2651,7 @@
     </row>
     <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>104</v>
@@ -2524,7 +2662,7 @@
     </row>
     <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>105</v>
@@ -2535,7 +2673,7 @@
     </row>
     <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>106</v>
@@ -2546,7 +2684,7 @@
     </row>
     <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>107</v>
@@ -2557,7 +2695,7 @@
     </row>
     <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>108</v>
@@ -2568,7 +2706,7 @@
     </row>
     <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>109</v>
@@ -2579,7 +2717,7 @@
     </row>
     <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>110</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -502,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -590,9 +590,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,9 +615,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,15 +661,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,67 +706,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -720,7 +720,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,31 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,138 +901,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,11 +925,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,21 +987,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -988,26 +1001,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,130 +1032,130 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1749,10 +1749,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P20"/>
+  <dimension ref="D7:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1982,17 +1982,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="6:15">
+    <row r="13" spans="6:16">
       <c r="F13" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2003,28 +2005,29 @@
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O13" s="4">
         <v>80</v>
       </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="6:15">
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2035,33 +2038,33 @@
         <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O14" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="6:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="6:15">
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>23</v>
@@ -2070,24 +2073,24 @@
         <v>47</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O15" s="4">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="6:15">
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
@@ -2102,30 +2105,30 @@
         <v>47</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O16" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="6:16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>23</v>
@@ -2134,82 +2137,44 @@
         <v>47</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O17" s="4">
-        <v>80</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="6:16">
-      <c r="F18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
-        <v>70</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="6:16">
       <c r="F19" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4">
         <v>70</v>
       </c>
-      <c r="O19" s="4">
-        <v>10</v>
-      </c>
       <c r="P19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="6:15">
+    <row r="20" customFormat="1" spans="6:16">
       <c r="F20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2226,7 +2191,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>32</v>
@@ -2235,9 +2200,44 @@
         <v>47</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="4">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="6:15">
+      <c r="F21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <v>30</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\asgard-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21763E7-AD4D-4A83-ADF9-9C1B781FB0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="131">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -60,7 +66,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -68,7 +74,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -93,7 +99,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -101,7 +107,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.task</t>
     </r>
@@ -144,7 +150,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -152,7 +158,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>route.project.saga-instance</t>
     </r>
@@ -191,24 +197,6 @@
     <t>ICON</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="1"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>SORT</t>
-    </r>
-  </si>
-  <si>
     <t>choerodon.code.organization.saga-instance</t>
   </si>
   <si>
@@ -275,22 +263,7 @@
     <t>事务实例</t>
   </si>
   <si>
-    <t>choerodon.code.project.management</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
     <t>choerodon.code.project.saga-instance</t>
-  </si>
-  <si>
-    <t>instance_outline</t>
   </si>
   <si>
     <t>choerodon.code.project.operation</t>
@@ -312,7 +285,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -320,7 +293,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -495,19 +468,25 @@
   </si>
   <si>
     <t>GENERAL</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.saga-instance</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.saga-manager</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -516,7 +495,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -526,7 +505,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -547,365 +526,35 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -913,253 +562,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1171,67 +578,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1489,39 +851,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="38.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="24.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.4380952380952" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="18.7809523809524" customWidth="1"/>
-    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,9 +921,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="12.75">
       <c r="D8" s="2"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1573,25 +935,25 @@
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" ht="12.75">
       <c r="D9" s="2"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1609,17 +971,17 @@
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" ht="12.75">
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1632,23 +994,23 @@
       <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14">
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" ht="12.75">
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,23 +1023,23 @@
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" ht="12.75">
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1696,19 +1058,19 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="4:14">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="12.75">
       <c r="D13" s="2"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1720,25 +1082,26 @@
       <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1747,34 +1110,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
-    <col min="3" max="3" width="6.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.4380952380952" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="41.552380952381" customWidth="1"/>
-    <col min="7" max="7" width="16.7809523809524" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="61.7809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="8.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="19.6666666666667" customWidth="1"/>
-    <col min="15" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="61.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1808,22 +1170,22 @@
       <c r="N7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>42</v>
+      <c r="O7" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:16">
+    <row r="8" spans="4:16" ht="13.5">
       <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>12</v>
@@ -1832,33 +1194,30 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" ht="13.5">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="4">
-        <v>30</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="6:16">
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>18</v>
@@ -1867,383 +1226,195 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
-        <v>40</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="6:15">
-      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" ht="13.5">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="4:16" ht="13.5">
+      <c r="F11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="6:15">
-      <c r="F11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O11" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" ht="13.5">
+      <c r="F12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="6:16">
-      <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
-        <v>70</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="6:16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" ht="13.5">
       <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O13" s="4">
-        <v>80</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="6:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" ht="13.5">
       <c r="F14" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O14" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="6:15">
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" ht="13.5">
       <c r="F16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="O16" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15">
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="6:16">
-      <c r="F19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>70</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="6:16">
-      <c r="F20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" s="4">
-        <v>10</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="6:15">
-      <c r="F21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21" s="4">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2252,241 +1423,240 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.78095238095238" customWidth="1"/>
-    <col min="2" max="2" width="6.78095238095238" customWidth="1"/>
-    <col min="3" max="3" width="6.21904761904762" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="68.2190476190476" customWidth="1"/>
-    <col min="7" max="7" width="76.552380952381" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="76.5703125" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="4:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.75">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="4:9">
+    <row r="9" spans="4:9" ht="14.25">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="4:9">
+    <row r="10" spans="4:9" ht="14.25">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="4:9">
+    <row r="11" spans="4:9" ht="14.25">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="4:9">
+    <row r="12" spans="4:9" ht="14.25">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="4:9">
+    <row r="13" spans="4:9" ht="14.25">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="4:9">
+    <row r="14" spans="4:9" ht="14.25">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="4:9">
+    <row r="15" spans="4:9" ht="14.25">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="4:9">
+    <row r="16" spans="4:9" ht="14.25">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="4:9">
+    <row r="17" spans="4:9" ht="14.25">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="4:9">
+    <row r="18" spans="4:9" ht="14.25">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="4:9">
+    <row r="19" spans="4:9" ht="14.25">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="4:9">
+    <row r="20" spans="4:9" ht="14.25">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="4:9">
+    <row r="21" spans="4:9" ht="14.25">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="4:9">
+    <row r="22" spans="4:9" ht="14.25">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="4:9">
+    <row r="23" spans="4:9" ht="14.25">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:9">
+    <row r="24" spans="4:9" ht="14.25">
       <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
@@ -2495,31 +1665,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:9">
+    <row r="25" spans="4:9" ht="14.25">
       <c r="F25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:9">
+    <row r="26" spans="4:9" ht="14.25">
       <c r="F26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:9">
+    <row r="27" spans="4:9" ht="14.25">
       <c r="F27" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -2528,64 +1698,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:9">
+    <row r="28" spans="4:9" ht="14.25">
       <c r="F28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:9">
+    <row r="29" spans="4:9" ht="14.25">
       <c r="F29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:9">
+    <row r="30" spans="4:9" ht="14.25">
       <c r="F30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:9">
+    <row r="31" spans="4:9" ht="14.25">
       <c r="F31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:9">
+    <row r="32" spans="4:9" ht="14.25">
       <c r="F32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:9">
+    <row r="33" spans="4:9" ht="14.25">
       <c r="F33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>28</v>
@@ -2594,256 +1764,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:9">
+    <row r="34" spans="4:9" ht="14.25">
       <c r="F34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" ht="14.25">
+      <c r="F35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="14.25">
+      <c r="F36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" ht="14.25">
+      <c r="F37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="14.25">
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="14.25">
+      <c r="F39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="14.25">
+      <c r="F40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="6:9">
-      <c r="F35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" ht="14.25">
+      <c r="F41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="6:9">
-      <c r="F36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="14.25">
+      <c r="F42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="6:9">
-      <c r="F37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="14.25">
+      <c r="F43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="6:9">
-      <c r="F38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="14.25">
+      <c r="F44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="6:9">
-      <c r="F39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" ht="14.25">
+      <c r="F45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="6:9">
-      <c r="F40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="14.25">
+      <c r="F46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="6:9">
-      <c r="F41" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:9">
-      <c r="F42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="6:9">
-      <c r="F43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="6:9">
-      <c r="F44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="6:9">
-      <c r="F45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="6:9">
-      <c r="F46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="I46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="15" spans="4:9">
+    <row r="47" spans="4:9" ht="14.25">
       <c r="D47" s="2"/>
       <c r="F47" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="15" spans="4:9">
+    <row r="48" spans="4:9" ht="14.25">
       <c r="D48" s="2"/>
       <c r="F48" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="15" spans="4:9">
+    <row r="49" spans="4:9" ht="14.25">
       <c r="D49" s="2"/>
       <c r="F49" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="15" spans="4:9">
+    <row r="50" spans="4:9" ht="14.25">
       <c r="D50" s="2"/>
       <c r="F50" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="15" spans="4:8">
+    <row r="51" spans="4:9" ht="14.25">
       <c r="D51" s="2"/>
       <c r="F51" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="6:9">
+    <row r="52" spans="4:9" ht="14.25">
       <c r="F52" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="6:9">
+    <row r="53" spans="4:9" ht="14.25">
       <c r="F53" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="6:9">
+    <row r="54" spans="4:9" ht="14.25">
       <c r="F54" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="6:9">
+    <row r="55" spans="4:9" ht="14.25">
       <c r="F55" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2852,122 +2023,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.21904761904762" customWidth="1"/>
-    <col min="4" max="4" width="25.8857142857143" customWidth="1"/>
-    <col min="5" max="5" width="7.21904761904762" customWidth="1"/>
-    <col min="6" max="6" width="42.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="40.4380952380952" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="13.5">
       <c r="D7" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="6:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="15.75">
       <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="4:7" ht="15.75">
       <c r="F9" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="4:7" ht="15.75">
       <c r="F10" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="4:7" ht="15.75">
       <c r="F11" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="4:7" ht="15.75">
       <c r="F12" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="4:7" ht="15.75">
       <c r="F13" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="4:7" ht="15.75">
       <c r="F14" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="6:7">
+    <row r="15" spans="4:7" ht="15.75">
       <c r="F15" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="6:7">
+    <row r="16" spans="4:7" ht="15.75">
       <c r="F16" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="6:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" ht="15.75">
       <c r="F17" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -2977,130 +2148,129 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="5.43809523809524" customWidth="1"/>
-    <col min="3" max="3" width="5.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="56.7809523809524" customWidth="1"/>
-    <col min="8" max="8" width="35.2190476190476" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="13.5">
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:9" ht="12.75">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:9" ht="12.75">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="4:8">
+    <row r="10" spans="4:9" ht="12.75">
       <c r="D10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="12.75">
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9" ht="12.75">
       <c r="F12" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="6:8">
+    <row r="13" spans="4:9" ht="12.75">
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="12.75">
       <c r="F14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\asgard-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21763E7-AD4D-4A83-ADF9-9C1B781FB0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDD5BCF-8299-47F1-A988-2FF74EFF9134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:P16"/>
+  <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1131,7 +1131,7 @@
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
     <col min="11" max="11" width="61.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1242,28 +1242,48 @@
       </c>
     </row>
     <row r="10" spans="4:16" ht="13.5">
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="4:16" ht="13.5">
       <c r="F11" s="4" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1274,33 +1294,33 @@
         <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="13.5">
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
@@ -1309,24 +1329,24 @@
         <v>46</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O12" s="4">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="4:16" ht="13.5">
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>14</v>
@@ -1341,33 +1361,33 @@
         <v>46</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="O13" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="4:16" ht="13.5">
       <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>128</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>25</v>
+      <c r="I14" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>46</v>
@@ -1376,38 +1396,6 @@
         <v>47</v>
       </c>
       <c r="O14" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" ht="13.5">
-      <c r="F16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="4">
         <v>30</v>
       </c>
     </row>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\asgard-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDD5BCF-8299-47F1-A988-2FF74EFF9134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063C646-A9A9-44AD-95FD-2C2A15BC64B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
   <dimension ref="D7:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1300,7 +1300,7 @@
         <v>51</v>
       </c>
       <c r="O11" s="4">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="13.5">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\asgard-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4063C646-A9A9-44AD-95FD-2C2A15BC64B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21383" windowHeight="10020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -66,7 +60,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -74,7 +68,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -99,7 +93,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -107,7 +101,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.organization.task</t>
     </r>
@@ -150,7 +144,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -158,7 +152,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.project.saga-instance</t>
     </r>
@@ -195,6 +189,9 @@
   </si>
   <si>
     <t>ICON</t>
+  </si>
+  <si>
+    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.organization.saga-instance</t>
@@ -285,7 +282,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -293,7 +290,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -359,6 +356,9 @@
     <t>asgard-service.saga-instance.statistics</t>
   </si>
   <si>
+    <t>base-service.site-retry.siteRetry</t>
+  </si>
+  <si>
     <t>asgard-service.saga-task-instance.retry</t>
   </si>
   <si>
@@ -401,6 +401,9 @@
     <t>asgard-service.saga-task-instance.unlockById</t>
   </si>
   <si>
+    <t>base-service.organization-retry.orgRetry</t>
+  </si>
+  <si>
     <t>asgard-service.saga-task-instance-org.retry</t>
   </si>
   <si>
@@ -468,25 +471,19 @@
   </si>
   <si>
     <t>GENERAL</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.saga-instance</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.site.saga-manager</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SORT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -495,7 +492,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -505,7 +502,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -526,35 +523,365 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -562,9 +889,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -583,17 +1152,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -851,39 +1464,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.71296296296296" customWidth="1"/>
+    <col min="2" max="2" width="6.28703703703704" customWidth="1"/>
+    <col min="3" max="3" width="7.13888888888889" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
+    <col min="6" max="6" width="38.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="24.287037037037" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.4259259259259" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="18.712962962963" customWidth="1"/>
+    <col min="14" max="14" width="19.287037037037" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="16" max="1025" width="8.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -921,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75">
+    <row r="8" spans="4:14">
       <c r="D8" s="2"/>
       <c r="F8" s="10" t="s">
         <v>12</v>
@@ -951,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" ht="12.75">
+    <row r="9" spans="4:14">
       <c r="D9" s="2"/>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -981,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="12.75">
+    <row r="10" spans="6:14">
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="12.75">
+    <row r="11" spans="6:14">
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1039,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="12.75">
+    <row r="12" spans="6:14">
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1068,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15" ht="12.75">
+    <row r="13" spans="4:14">
       <c r="D13" s="2"/>
       <c r="F13" s="10" t="s">
         <v>30</v>
@@ -1099,9 +1712,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1110,33 +1722,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.71296296296296" customWidth="1"/>
+    <col min="2" max="2" width="5.42592592592593" customWidth="1"/>
+    <col min="3" max="3" width="6.28703703703704" customWidth="1"/>
+    <col min="4" max="4" width="20.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
+    <col min="6" max="6" width="43.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="16.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="23.712962962963" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="61.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="61.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="11.4259259259259" customWidth="1"/>
+    <col min="14" max="14" width="19.712962962963" customWidth="1"/>
+    <col min="15" max="1025" width="8.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:16">
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1171,21 +1784,21 @@
         <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="13.5">
+    <row r="8" spans="6:15">
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>12</v>
@@ -1194,30 +1807,30 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:16" ht="13.5">
+    <row r="9" spans="6:15">
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>18</v>
@@ -1226,60 +1839,60 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O9" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="13.5">
+    <row r="10" spans="6:15">
       <c r="F10" s="4" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:16" ht="13.5">
+    <row r="11" spans="6:15">
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>28</v>
@@ -1288,30 +1901,30 @@
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O11" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="4:16" ht="13.5">
+    <row r="12" spans="6:15">
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>21</v>
@@ -1320,30 +1933,30 @@
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:16" ht="13.5">
+    <row r="13" spans="6:15">
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>25</v>
@@ -1352,30 +1965,30 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O13" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:16" ht="13.5">
+    <row r="14" spans="6:15">
       <c r="F14" s="4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>30</v>
@@ -1384,25 +1997,24 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O14" s="4">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1411,240 +2023,241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" customWidth="1"/>
-    <col min="7" max="7" width="76.5703125" customWidth="1"/>
-    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.71296296296296" customWidth="1"/>
+    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="6.28703703703704" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
+    <col min="6" max="6" width="68.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="76.5740740740741" customWidth="1"/>
+    <col min="8" max="1025" width="8.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="15.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="4:9">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="14.25">
+    <row r="9" ht="15" spans="4:9">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="14.25">
+    <row r="10" ht="15" spans="4:9">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="14.25">
+    <row r="11" ht="15" spans="4:9">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="14.25">
+    <row r="12" ht="15" spans="4:9">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="14.25">
+    <row r="13" ht="15" spans="4:9">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="14.25">
+    <row r="14" ht="15" spans="4:9">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="14.25">
+    <row r="15" ht="15" spans="4:9">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="14.25">
+    <row r="16" ht="15" spans="4:9">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="14.25">
+    <row r="17" ht="15" spans="4:9">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="14.25">
+    <row r="18" ht="15" spans="4:9">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="14.25">
+    <row r="19" ht="15" spans="4:9">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:9" ht="14.25">
+    <row r="20" ht="15" spans="4:9">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" ht="14.25">
+    <row r="21" ht="15" spans="4:9">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:9" ht="14.25">
+    <row r="22" ht="15" spans="4:9">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="14.25">
+    <row r="23" ht="15" spans="4:9">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:9" ht="14.25">
+    <row r="24" ht="15" spans="6:9">
       <c r="F24" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
@@ -1653,31 +2266,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:9" ht="14.25">
+    <row r="25" ht="15" spans="6:9">
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:9" ht="14.25">
+    <row r="26" ht="15" spans="6:9">
       <c r="F26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="14.25">
+    <row r="27" ht="15" spans="6:9">
       <c r="F27" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>25</v>
@@ -1686,323 +2299,350 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:9" ht="14.25">
+    <row r="28" ht="15" spans="6:9">
       <c r="F28" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:9" ht="14.25">
+    <row r="29" ht="15" spans="6:9">
       <c r="F29" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:9" ht="14.25">
+    <row r="30" ht="15" spans="6:9">
       <c r="F30" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:9" ht="14.25">
+    <row r="31" ht="15" spans="6:9">
       <c r="F31" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:9" ht="14.25">
+    <row r="32" ht="15" spans="6:9">
       <c r="F32" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" ht="14.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:9">
       <c r="F33" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="6:9">
+      <c r="F34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="14.25">
-      <c r="F34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="I34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="14.25">
+    <row r="35" ht="15" spans="6:9">
       <c r="F35" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" ht="14.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:9">
       <c r="F36" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" ht="14.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="6:9">
       <c r="F37" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="14.25">
+    <row r="38" ht="15" spans="6:9">
       <c r="F38" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="14.25">
+    <row r="39" ht="15" spans="6:9">
       <c r="F39" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" ht="14.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:9">
       <c r="F40" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:9" ht="14.25">
+    <row r="41" ht="15" spans="6:9">
       <c r="F41" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="14.25">
+    <row r="42" ht="15" spans="6:9">
       <c r="F42" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:9" ht="14.25">
+    <row r="43" ht="15" spans="6:9">
       <c r="F43" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="14.25">
+    <row r="44" ht="15" spans="6:9">
       <c r="F44" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:9" ht="14.25">
+    <row r="45" ht="15" spans="6:9">
       <c r="F45" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:9" ht="14.25">
+    <row r="46" ht="15" spans="6:9">
       <c r="F46" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:9" ht="14.25">
-      <c r="D47" s="2"/>
+    <row r="47" ht="15" spans="6:9">
       <c r="F47" s="6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" ht="14.25">
-      <c r="D48" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="6:9">
       <c r="F48" s="6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" ht="14.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="4:9">
       <c r="D49" s="2"/>
       <c r="F49" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="4:9" ht="14.25">
+    <row r="50" ht="15" spans="4:9">
       <c r="D50" s="2"/>
       <c r="F50" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="4:9" ht="14.25">
+    <row r="51" ht="15" spans="4:9">
       <c r="D51" s="2"/>
       <c r="F51" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" ht="14.25">
+        <v>111</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="4:9">
+      <c r="D52" s="2"/>
       <c r="F52" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:9" ht="14.25">
+    <row r="53" ht="15" spans="4:8">
+      <c r="D53" s="2"/>
       <c r="F53" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" ht="14.25">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="6:9">
       <c r="F54" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" ht="14.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="6:9">
       <c r="F55" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
     </row>
+    <row r="56" ht="15" spans="6:9">
+      <c r="F56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="6:9">
+      <c r="F57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2011,122 +2651,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.13888888888889" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1"/>
-    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28703703703704" customWidth="1"/>
+    <col min="4" max="4" width="25.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="7.28703703703704" customWidth="1"/>
+    <col min="6" max="6" width="42.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="40.4259259259259" customWidth="1"/>
+    <col min="8" max="1025" width="8.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13.5">
+    <row r="7" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="15.75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="6:7">
       <c r="F8" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="15.75">
+    <row r="9" ht="15.6" spans="6:7">
       <c r="F9" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="15.75">
+    <row r="10" ht="15.6" spans="6:7">
       <c r="F10" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="15.75">
+    <row r="11" ht="15.6" spans="6:7">
       <c r="F11" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="15.75">
+    <row r="12" ht="15.6" spans="6:7">
       <c r="F12" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="15.75">
+    <row r="13" ht="15.6" spans="6:7">
       <c r="F13" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="15.75">
+    <row r="14" ht="15.6" spans="6:7">
       <c r="F14" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="15.75">
+    <row r="15" ht="15.6" spans="6:7">
       <c r="F15" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="15.75">
+    <row r="16" ht="15.6" spans="6:7">
       <c r="F16" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" ht="15.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="6:7">
       <c r="F17" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -2136,129 +2776,130 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.71296296296296" customWidth="1"/>
+    <col min="2" max="2" width="5.42592592592593" customWidth="1"/>
+    <col min="3" max="3" width="5.71296296296296" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="56.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="35.287037037037" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="13.5">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75">
+    <row r="8" spans="4:8">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="12.75">
+    <row r="9" spans="4:8">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="12.75">
+    <row r="10" spans="4:8">
       <c r="D10" s="2"/>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="12.75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="12.75">
+    <row r="12" spans="6:8">
       <c r="F12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="12.75">
+    <row r="13" spans="6:8">
       <c r="F13" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="12.75">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\asgard-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE063D89-355C-4C42-96EE-B2B258D54B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21383" windowHeight="10020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="132">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -60,7 +66,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -68,7 +74,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -93,7 +99,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -101,7 +107,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.task</t>
     </r>
@@ -144,7 +150,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -152,7 +158,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.project.saga-instance</t>
     </r>
@@ -282,7 +288,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -290,7 +296,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.saga-instance</t>
     </r>
@@ -471,19 +477,16 @@
   </si>
   <si>
     <t>GENERAL</t>
+  </si>
+  <si>
+    <t>AGILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -492,7 +495,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -502,7 +505,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -523,365 +526,35 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -889,251 +562,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1152,61 +583,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1220,7 +675,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1464,39 +919,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.71296296296296" customWidth="1"/>
-    <col min="2" max="2" width="6.28703703703704" customWidth="1"/>
-    <col min="3" max="3" width="7.13888888888889" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
-    <col min="6" max="6" width="38.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="24.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="18.712962962963" customWidth="1"/>
-    <col min="14" max="14" width="19.287037037037" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.71296296296296" customWidth="1"/>
+    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:15" ht="12.75">
       <c r="D8" s="2"/>
       <c r="F8" s="10" t="s">
         <v>12</v>
@@ -1564,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:15" ht="12.75">
       <c r="D9" s="2"/>
       <c r="F9" s="10" t="s">
         <v>18</v>
@@ -1594,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15" ht="12.75">
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1623,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15" ht="12.75">
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1652,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15" ht="12.75">
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1681,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:15" ht="12.75">
       <c r="D13" s="2"/>
       <c r="F13" s="10" t="s">
         <v>30</v>
@@ -1712,8 +1167,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1722,34 +1178,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.71296296296296" customWidth="1"/>
-    <col min="2" max="2" width="5.42592592592593" customWidth="1"/>
-    <col min="3" max="3" width="6.28703703703704" customWidth="1"/>
-    <col min="4" max="4" width="20.4259259259259" customWidth="1"/>
-    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
-    <col min="6" max="6" width="43.712962962963" customWidth="1"/>
-    <col min="7" max="7" width="16.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="23.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
-    <col min="11" max="11" width="61.712962962963" customWidth="1"/>
-    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="11.4259259259259" customWidth="1"/>
-    <col min="14" max="14" width="19.712962962963" customWidth="1"/>
-    <col min="15" max="1025" width="8.71296296296296" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="61.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
@@ -1790,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:16" ht="13.5">
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1822,7 +1277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:16" ht="13.5">
       <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
@@ -1854,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:16" ht="13.5">
       <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
@@ -1884,7 +1339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:16" ht="13.5">
       <c r="F11" s="4" t="s">
         <v>58</v>
       </c>
@@ -1916,7 +1371,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:16" ht="13.5">
       <c r="F12" s="4" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:16" ht="13.5">
       <c r="F13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1980,7 +1435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:16" ht="13.5">
       <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
@@ -2013,8 +1468,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2023,27 +1479,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C29" workbookViewId="0">
+    <sheetView topLeftCell="C29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.71296296296296" customWidth="1"/>
-    <col min="2" max="2" width="6.71296296296296" customWidth="1"/>
-    <col min="3" max="3" width="6.28703703703704" customWidth="1"/>
-    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="8.71296296296296" customWidth="1"/>
-    <col min="6" max="6" width="68.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="76.5740740740741" customWidth="1"/>
-    <col min="8" max="1025" width="8.71296296296296" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" customWidth="1"/>
+    <col min="7" max="7" width="76.5703125" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
@@ -2063,7 +1518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="4:9">
+    <row r="8" spans="4:9" ht="15.75">
       <c r="D8" s="2"/>
       <c r="F8" s="6" t="s">
         <v>43</v>
@@ -2075,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="4:9">
+    <row r="9" spans="4:9" ht="14.25">
       <c r="D9" s="2"/>
       <c r="F9" s="6" t="s">
         <v>43</v>
@@ -2087,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="4:9">
+    <row r="10" spans="4:9" ht="14.25">
       <c r="D10" s="2"/>
       <c r="F10" s="6" t="s">
         <v>43</v>
@@ -2099,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="4:9">
+    <row r="11" spans="4:9" ht="14.25">
       <c r="D11" s="2"/>
       <c r="F11" s="6" t="s">
         <v>43</v>
@@ -2111,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="4:9">
+    <row r="12" spans="4:9" ht="14.25">
       <c r="D12" s="2"/>
       <c r="F12" s="6" t="s">
         <v>43</v>
@@ -2123,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="4:9">
+    <row r="13" spans="4:9" ht="14.25">
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
         <v>49</v>
@@ -2135,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="4:9">
+    <row r="14" spans="4:9" ht="14.25">
       <c r="D14" s="2"/>
       <c r="F14" s="6" t="s">
         <v>49</v>
@@ -2147,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="4:9">
+    <row r="15" spans="4:9" ht="14.25">
       <c r="D15" s="2"/>
       <c r="F15" s="6" t="s">
         <v>49</v>
@@ -2159,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="4:9">
+    <row r="16" spans="4:9" ht="14.25">
       <c r="D16" s="2"/>
       <c r="F16" s="6" t="s">
         <v>49</v>
@@ -2171,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="4:9">
+    <row r="17" spans="4:9" ht="14.25">
       <c r="D17" s="2"/>
       <c r="F17" s="6" t="s">
         <v>49</v>
@@ -2183,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="4:9">
+    <row r="18" spans="4:9" ht="14.25">
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="s">
         <v>49</v>
@@ -2195,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="4:9">
+    <row r="19" spans="4:9" ht="14.25">
       <c r="D19" s="2"/>
       <c r="F19" s="6" t="s">
         <v>49</v>
@@ -2207,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="4:9">
+    <row r="20" spans="4:9" ht="14.25">
       <c r="D20" s="2"/>
       <c r="F20" s="6" t="s">
         <v>49</v>
@@ -2219,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="4:9">
+    <row r="21" spans="4:9" ht="14.25">
       <c r="D21" s="2"/>
       <c r="F21" s="6" t="s">
         <v>49</v>
@@ -2231,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="4:9">
+    <row r="22" spans="4:9" ht="14.25">
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="s">
         <v>49</v>
@@ -2243,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="4:9">
+    <row r="23" spans="4:9" ht="14.25">
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="s">
         <v>49</v>
@@ -2255,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="6:9">
+    <row r="24" spans="4:9" ht="14.25">
       <c r="F24" s="6" t="s">
         <v>59</v>
       </c>
@@ -2266,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="6:9">
+    <row r="25" spans="4:9" ht="14.25">
       <c r="F25" s="6" t="s">
         <v>59</v>
       </c>
@@ -2277,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="6:9">
+    <row r="26" spans="4:9" ht="14.25">
       <c r="F26" s="6" t="s">
         <v>59</v>
       </c>
@@ -2288,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="6:9">
+    <row r="27" spans="4:9" ht="14.25">
       <c r="F27" s="6" t="s">
         <v>63</v>
       </c>
@@ -2299,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="6:9">
+    <row r="28" spans="4:9" ht="14.25">
       <c r="F28" s="6" t="s">
         <v>63</v>
       </c>
@@ -2310,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="6:9">
+    <row r="29" spans="4:9" ht="14.25">
       <c r="F29" s="6" t="s">
         <v>63</v>
       </c>
@@ -2321,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="6:9">
+    <row r="30" spans="4:9" ht="14.25">
       <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="6:9">
+    <row r="31" spans="4:9" ht="14.25">
       <c r="F31" s="6" t="s">
         <v>63</v>
       </c>
@@ -2343,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="6:9">
+    <row r="32" spans="4:9" ht="14.25">
       <c r="F32" s="6" t="s">
         <v>63</v>
       </c>
@@ -2357,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="6:9">
+    <row r="33" spans="6:9" ht="14.25">
       <c r="F33" s="6" t="s">
         <v>63</v>
       </c>
@@ -2368,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="6:9">
+    <row r="34" spans="6:9" ht="14.25">
       <c r="F34" s="6" t="s">
         <v>58</v>
       </c>
@@ -2379,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="6:9">
+    <row r="35" spans="6:9" ht="14.25">
       <c r="F35" s="6" t="s">
         <v>58</v>
       </c>
@@ -2390,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:9">
+    <row r="36" spans="6:9" ht="14.25">
       <c r="F36" s="6" t="s">
         <v>58</v>
       </c>
@@ -2401,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:9">
+    <row r="37" spans="6:9" ht="14.25">
       <c r="F37" s="6" t="s">
         <v>58</v>
       </c>
@@ -2412,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:9">
+    <row r="38" spans="6:9" ht="14.25">
       <c r="F38" s="6" t="s">
         <v>58</v>
       </c>
@@ -2423,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="6:9">
+    <row r="39" spans="6:9" ht="14.25">
       <c r="F39" s="6" t="s">
         <v>58</v>
       </c>
@@ -2434,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:9">
+    <row r="40" spans="6:9" ht="14.25">
       <c r="F40" s="6" t="s">
         <v>58</v>
       </c>
@@ -2445,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:9">
+    <row r="41" spans="6:9" ht="14.25">
       <c r="F41" s="6" t="s">
         <v>58</v>
       </c>
@@ -2456,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="6:9">
+    <row r="42" spans="6:9" ht="14.25">
       <c r="F42" s="6" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:9">
+    <row r="43" spans="6:9" ht="14.25">
       <c r="F43" s="6" t="s">
         <v>58</v>
       </c>
@@ -2478,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:9">
+    <row r="44" spans="6:9" ht="14.25">
       <c r="F44" s="6" t="s">
         <v>58</v>
       </c>
@@ -2489,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:9">
+    <row r="45" spans="6:9" ht="14.25">
       <c r="F45" s="6" t="s">
         <v>63</v>
       </c>
@@ -2500,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:9">
+    <row r="46" spans="6:9" ht="14.25">
       <c r="F46" s="6" t="s">
         <v>63</v>
       </c>
@@ -2511,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="6:9">
+    <row r="47" spans="6:9" ht="14.25">
       <c r="F47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2522,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="6:9">
+    <row r="48" spans="6:9" ht="14.25">
       <c r="F48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2536,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="4:9">
+    <row r="49" spans="4:9" ht="14.25">
       <c r="D49" s="2"/>
       <c r="F49" s="6" t="s">
         <v>65</v>
@@ -2548,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="4:9">
+    <row r="50" spans="4:9" ht="14.25">
       <c r="D50" s="2"/>
       <c r="F50" s="6" t="s">
         <v>65</v>
@@ -2560,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="4:9">
+    <row r="51" spans="4:9" ht="14.25">
       <c r="D51" s="2"/>
       <c r="F51" s="6" t="s">
         <v>65</v>
@@ -2572,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="4:9">
+    <row r="52" spans="4:9" ht="14.25">
       <c r="D52" s="2"/>
       <c r="F52" s="6" t="s">
         <v>65</v>
@@ -2584,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="4:8">
+    <row r="53" spans="4:9" ht="14.25">
       <c r="D53" s="2"/>
       <c r="F53" s="6" t="s">
         <v>65</v>
@@ -2596,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="6:9">
+    <row r="54" spans="4:9" ht="14.25">
       <c r="F54" s="6" t="s">
         <v>65</v>
       </c>
@@ -2607,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="6:9">
+    <row r="55" spans="4:9" ht="14.25">
       <c r="F55" s="6" t="s">
         <v>65</v>
       </c>
@@ -2618,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="6:9">
+    <row r="56" spans="4:9" ht="14.25">
       <c r="F56" s="6" t="s">
         <v>65</v>
       </c>
@@ -2629,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="6:9">
+    <row r="57" spans="4:9" ht="14.25">
       <c r="F57" s="6" t="s">
         <v>65</v>
       </c>
@@ -2641,8 +2096,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2651,27 +2107,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.13888888888889" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.28703703703704" customWidth="1"/>
-    <col min="4" max="4" width="25.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="7.28703703703704" customWidth="1"/>
-    <col min="6" max="6" width="42.712962962963" customWidth="1"/>
-    <col min="7" max="7" width="40.4259259259259" customWidth="1"/>
-    <col min="8" max="1025" width="8.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="13.5">
       <c r="D7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2685,7 +2140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="6:7">
+    <row r="8" spans="4:7" ht="15.75">
       <c r="F8" s="5" t="s">
         <v>119</v>
       </c>
@@ -2693,7 +2148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="6:7">
+    <row r="9" spans="4:7" ht="15.75">
       <c r="F9" s="5" t="s">
         <v>119</v>
       </c>
@@ -2701,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="6:7">
+    <row r="10" spans="4:7" ht="15.75">
       <c r="F10" s="5" t="s">
         <v>120</v>
       </c>
@@ -2709,7 +2164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="6:7">
+    <row r="11" spans="4:7" ht="15.75">
       <c r="F11" s="5" t="s">
         <v>120</v>
       </c>
@@ -2717,7 +2172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="6:7">
+    <row r="12" spans="4:7" ht="15.75">
       <c r="F12" s="5" t="s">
         <v>120</v>
       </c>
@@ -2725,7 +2180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="6:7">
+    <row r="13" spans="4:7" ht="15.75">
       <c r="F13" s="5" t="s">
         <v>121</v>
       </c>
@@ -2733,7 +2188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="6:7">
+    <row r="14" spans="4:7" ht="15.75">
       <c r="F14" s="5" t="s">
         <v>121</v>
       </c>
@@ -2741,7 +2196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="6:7">
+    <row r="15" spans="4:7" ht="15.75">
       <c r="F15" s="5" t="s">
         <v>121</v>
       </c>
@@ -2749,7 +2204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="6:7">
+    <row r="16" spans="4:7" ht="15.75">
       <c r="F16" s="5" t="s">
         <v>122</v>
       </c>
@@ -2757,7 +2212,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="6:7">
+    <row r="17" spans="6:7" ht="15.75">
       <c r="F17" s="5" t="s">
         <v>123</v>
       </c>
@@ -2766,7 +2221,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -2776,28 +2232,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D7:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.71296296296296" customWidth="1"/>
-    <col min="2" max="2" width="5.42592592592593" customWidth="1"/>
-    <col min="3" max="3" width="5.71296296296296" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.4259259259259" customWidth="1"/>
-    <col min="7" max="7" width="56.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="35.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="13.5">
       <c r="D7" s="1" t="s">
         <v>124</v>
       </c>
@@ -2817,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:9" ht="12.75">
       <c r="D8" s="2"/>
       <c r="F8" s="1" t="s">
         <v>127</v>
@@ -2829,7 +2284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:9" ht="12.75">
       <c r="D9" s="2"/>
       <c r="F9" s="1" t="s">
         <v>127</v>
@@ -2841,7 +2296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:9" ht="12.75">
       <c r="D10" s="2"/>
       <c r="F10" s="1" t="s">
         <v>127</v>
@@ -2853,7 +2308,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:9" ht="12.75">
       <c r="F11" s="1" t="s">
         <v>129</v>
       </c>
@@ -2864,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:9" ht="12.75">
       <c r="F12" s="1" t="s">
         <v>129</v>
       </c>
@@ -2875,7 +2330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="4:9" ht="12.75">
       <c r="F13" s="1" t="s">
         <v>129</v>
       </c>
@@ -2886,7 +2341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="4:9" ht="12.75">
       <c r="F14" t="s">
         <v>130</v>
       </c>
@@ -2897,9 +2352,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="4:9" ht="13.5">
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>